--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_62.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_62.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2456140350877193</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(47.639639, 53.885807)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.227, 21.36)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:08.460000', '0:00:13.460000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.0, 16.38)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.18, 13.26)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:02.860000', '0:00:05.300000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2571428571428571</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(88.76, 98.3)]</t>
+          <t>[['Cb', 'Gb:7', 'Cb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(14.86, 17.32)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>jaah_31</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_33</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05782390510948905</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['A:min7', 'D:7', 'G:maj7'], ['G:7', 'C:maj7', 'C:maj6']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[['Ab:min7', 'Db:7', 'Gb:maj7'], ['Gb:7', 'Cb:maj7', 'Ab:min7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[('0:00:44.090000', '0:00:49.580000'), ('0:00:16.850000', '0:00:22.300000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:21.400000', '0:00:24.460000'), ('0:00:02.670000', '0:00:05.640000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1891625615763547</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'C:7', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_258</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.31, 23.575)]</t>
+          <t>[['E:min', 'A:min', 'E:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(147.14, 157.12)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:12.820000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.506000', '0:00:08.175000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(72.52, 83.28), (16.02, 22.5)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82), (63.6, 66.04)]</t>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1446428571428571</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:min', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'F#:min', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.503151, 31.045011)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(24.143514, 35.544512)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1021978021978022</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'C:min', 'F:min/5', 'C:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(95.68, 111.62)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.238, 26.622)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1418380889183809</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3706896551724138</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E', 'A', 'E'], ['A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:07.525011', '0:00:20.319206'), ('0:00:09.370997', '0:00:22.141972')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:08.413696', '0:00:15.101043'), ('0:00:09.156734', '0:00:16.331700')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1028571428571429</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4545454545454545</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(46.759, 50.551)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(4.83, 10.94)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:10.519024', '0:01:19.249727')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.147562582345191</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(17.48, 20.74)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(66.93, 74.44)]</t>
+          <t>[('0:00:19.040000', '0:00:22.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:01:03.100000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_50</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.03856295319709954</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj7', 'F:maj7'], ['G:min7', 'C:7', 'F:maj7']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db:maj7', 'Db:maj7'], ['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(4.76, 7.92), (10.28, 12.63)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(17.88, 21.74), (16.6, 20.43)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(53.46, 61.8)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.08, 30.92)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'E:min'], ['D', 'A:7', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'A:min/C'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(71.679925, 76.022057), (69.52047, 74.942329)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(25.62, 30.0), (70.98, 80.44)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.3, 2.82), (16.3, 19.52)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(19.98, 27.18), (8.44, 17.54)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
